--- a/biology/Botanique/Nicolas_Irénée_Ruinart/Nicolas_Irénée_Ruinart.xlsx
+++ b/biology/Botanique/Nicolas_Irénée_Ruinart/Nicolas_Irénée_Ruinart.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nicolas_Ir%C3%A9n%C3%A9e_Ruinart</t>
+          <t>Nicolas_Irénée_Ruinart</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nicolas Irénée Ruinart (né en 1697 à Reims - décédé en 1769 à Reims), est un drapier, fondateur de la première maison de champagne rémoise.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nicolas_Ir%C3%A9n%C3%A9e_Ruinart</t>
+          <t>Nicolas_Irénée_Ruinart</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Nicolas Irénée Ruinart est baptisé à Reims le 4 avril 1697 en l'église Saint Michel. Membre de la famille Ruinart, ses parents sont Nicolas Ruinart (1652-1734), marchand de drap, bourgeois et juge consul de Reims, et Barbe Misson (1660-1714). Il épouse à Reims en l'église Saint Symphorien le 28 septembre 1728 Marie Saubinet, fille d'un ancien échevin de Reims, qui lui donne, entre autres enfants, Claude Ruinart de Brimont (1731-1798), écuyer, avocat, échevin de Reims et président de l’administration de l’Hôtel-Dieu, contrôleur des guerres, conseiller secrétaire du roi, seigneur de Brimont.
-Nicolas Ruinart est le neveu de Dom Thierry Ruinart, qui lui a appris les secrets de la fabrication du vin de Champagne. À la mort de son oncle en 1709, Nicolas Ruinart veut prolonger son œuvre : le 1er septembre 1729, il fonde à Épernay[1] la première maison de vin de champagne de la ville, la Maison Ruinart. Peu avant sa mort, il la cède à son fils Claude. Il meurt à Reims le 21 avril 1769.
-Claude Ruinart transférera la maison de champagne à Reims[1].
+Nicolas Ruinart est le neveu de Dom Thierry Ruinart, qui lui a appris les secrets de la fabrication du vin de Champagne. À la mort de son oncle en 1709, Nicolas Ruinart veut prolonger son œuvre : le 1er septembre 1729, il fonde à Épernay la première maison de vin de champagne de la ville, la Maison Ruinart. Peu avant sa mort, il la cède à son fils Claude. Il meurt à Reims le 21 avril 1769.
+Claude Ruinart transférera la maison de champagne à Reims.
 </t>
         </is>
       </c>
